--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/38_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -547,15 +544,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -659,454 +656,439 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.06295237744712191</v>
+      </c>
+      <c r="E2">
+        <v>0.05541533259736262</v>
+      </c>
+      <c r="F2">
+        <v>0.1639294639832617</v>
+      </c>
+      <c r="G2">
+        <v>0.1439520688500748</v>
+      </c>
+      <c r="H2">
+        <v>0.001973116967109648</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.01526415833360998</v>
+      </c>
+      <c r="K2">
+        <v>0.001963529475710923</v>
+      </c>
+      <c r="L2">
+        <v>0.007807912588773026</v>
+      </c>
+      <c r="M2">
+        <v>0.003544917647140277</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.1326531078495745</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.06984577822836728</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.1846337485114733</v>
+      </c>
+      <c r="U2">
+        <v>0.01669467588081783</v>
+      </c>
+      <c r="V2">
+        <v>0.03629119283684695</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0.02447259607489887</v>
+      </c>
+      <c r="Y2">
+        <v>0.007874335068628922</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0.06103669077340989</v>
+      </c>
+      <c r="AD2">
+        <v>0.002231940493809344</v>
+      </c>
+      <c r="AE2">
+        <v>0.0006972600272538557</v>
+      </c>
+      <c r="AF2">
+        <v>0.0067657963647542</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.2245404626637236</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.2466157559167747</v>
-      </c>
-      <c r="G2">
-        <v>0.02324395745814104</v>
-      </c>
-      <c r="H2">
-        <v>0.01102484346084033</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0.007060589769431676</v>
-      </c>
-      <c r="K2">
-        <v>0.04264540703636369</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0.03487481094254402</v>
-      </c>
-      <c r="N2">
-        <v>0.01661708230569666</v>
-      </c>
-      <c r="O2">
-        <v>0.09855010292181238</v>
-      </c>
-      <c r="P2">
-        <v>0.003581871297669349</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.04681716196495131</v>
-      </c>
-      <c r="S2">
-        <v>0.03339173183945819</v>
-      </c>
-      <c r="T2">
-        <v>0.1236218933404306</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.02821729392300886</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0.01198309711827357</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0.001132421987768114</v>
-      </c>
-      <c r="AC2">
-        <v>0.03395602478096149</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0.01212549127215041</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1155352812826572</v>
+      </c>
+      <c r="E3">
+        <v>0.01949368907930446</v>
+      </c>
+      <c r="F3">
+        <v>0.2910036898914736</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.04659131260501412</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.03813633551722396</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.1123018370650395</v>
+      </c>
+      <c r="O3">
+        <v>0.02530866783646262</v>
+      </c>
+      <c r="P3">
+        <v>0.008734320887634124</v>
+      </c>
+      <c r="Q3">
+        <v>0.0241945443154504</v>
+      </c>
+      <c r="R3">
+        <v>0.04673622246377201</v>
+      </c>
+      <c r="S3">
+        <v>0.08008119291059333</v>
+      </c>
+      <c r="T3">
+        <v>0.08625367662929452</v>
+      </c>
+      <c r="U3">
+        <v>0.01390259977521901</v>
+      </c>
+      <c r="V3">
+        <v>0.00910706384992307</v>
+      </c>
+      <c r="W3">
+        <v>0.002560054624224367</v>
+      </c>
+      <c r="X3">
+        <v>0.01085190222489251</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0.02437749588349934</v>
+      </c>
+      <c r="AC3">
+        <v>0.03197663099017585</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0.0128534821681463</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.1092139080824761</v>
-      </c>
-      <c r="E3">
-        <v>0.01307609815153977</v>
-      </c>
-      <c r="F3">
-        <v>0.2384122025684675</v>
-      </c>
-      <c r="G3">
-        <v>0.08811208201302653</v>
-      </c>
-      <c r="H3">
-        <v>0.02522478480193096</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.0399692064147693</v>
-      </c>
-      <c r="K3">
-        <v>0.01184425741302176</v>
-      </c>
-      <c r="L3">
-        <v>0.01083750974939677</v>
-      </c>
-      <c r="M3">
-        <v>0.01431099158325683</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.1446997843171115</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.01838974556510289</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0.1557099029428532</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.03153287108811483</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0.03112684788084287</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0.04911952756170425</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0.0116508895647884</v>
-      </c>
-      <c r="AF3">
-        <v>0.006769390301596481</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.01139518642935993</v>
+      </c>
+      <c r="E4">
+        <v>0.09511480073388215</v>
+      </c>
+      <c r="F4">
+        <v>0.08178607362907149</v>
+      </c>
+      <c r="G4">
+        <v>0.2381518598244462</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.03403069040713336</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.03569835799472987</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.1276651756653285</v>
+      </c>
+      <c r="P4">
+        <v>0.01517823212007197</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.0414634520652396</v>
+      </c>
+      <c r="S4">
+        <v>0.03031008284882788</v>
+      </c>
+      <c r="T4">
+        <v>0.09284367089491811</v>
+      </c>
+      <c r="U4">
+        <v>0.05595115757990944</v>
+      </c>
+      <c r="V4">
+        <v>0.0265810625270039</v>
+      </c>
+      <c r="W4">
+        <v>0.01383068701728028</v>
+      </c>
+      <c r="X4">
+        <v>0.006519887308040937</v>
+      </c>
+      <c r="Y4">
+        <v>0.01929667848826276</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0.05768299746125785</v>
+      </c>
+      <c r="AD4">
+        <v>0.01649994700523564</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.125873389343547</v>
-      </c>
-      <c r="E4">
-        <v>0.06156130028295294</v>
-      </c>
-      <c r="F4">
-        <v>0.2037324956035076</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0.04667096009309056</v>
-      </c>
-      <c r="I4">
-        <v>0.001095743268650196</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.07363831941742092</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.01703866631914146</v>
-      </c>
-      <c r="N4">
-        <v>0.06508322712985615</v>
-      </c>
-      <c r="O4">
-        <v>0.09025767433243059</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0.01755725582783682</v>
-      </c>
-      <c r="S4">
-        <v>0.0634631078128218</v>
-      </c>
-      <c r="T4">
-        <v>0.1031375905962124</v>
-      </c>
-      <c r="U4">
-        <v>0.008766330566296488</v>
-      </c>
-      <c r="V4">
-        <v>0.02086963555883503</v>
-      </c>
-      <c r="W4">
-        <v>0.005433833526532619</v>
-      </c>
-      <c r="X4">
-        <v>0.02072160506035448</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0.03814743653367505</v>
-      </c>
-      <c r="AC4">
-        <v>0.03038282534581596</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.006568603381021787</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.04398220801573765</v>
+      </c>
+      <c r="E5">
+        <v>0.05476230738251157</v>
+      </c>
+      <c r="F5">
+        <v>0.134209182540239</v>
+      </c>
+      <c r="G5">
+        <v>0.1695608793288691</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.02903486186240794</v>
+      </c>
+      <c r="K5">
+        <v>0.003364727378201485</v>
+      </c>
+      <c r="L5">
+        <v>0.02439710211968503</v>
+      </c>
+      <c r="M5">
+        <v>0.001671322332230033</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.1634136741371206</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.07436860298060896</v>
+      </c>
+      <c r="S5">
+        <v>0.001255967038751697</v>
+      </c>
+      <c r="T5">
+        <v>0.1425258265971363</v>
+      </c>
+      <c r="U5">
+        <v>0.02236366979670446</v>
+      </c>
+      <c r="V5">
+        <v>0.03703072794210908</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.01725388627806551</v>
+      </c>
+      <c r="Y5">
+        <v>0.00957620429828069</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.06307018322407081</v>
+      </c>
+      <c r="AD5">
+        <v>0.008158666747270187</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1405605563332582</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0.3445986138953814</v>
-      </c>
-      <c r="H5">
-        <v>0.03877587051962689</v>
-      </c>
-      <c r="I5">
-        <v>0.02040297400915234</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0.01539987849240836</v>
-      </c>
-      <c r="L5">
-        <v>0.004686578147048289</v>
-      </c>
-      <c r="M5">
-        <v>0.004952459759639437</v>
-      </c>
-      <c r="N5">
-        <v>0.01594083104780113</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0.1149383457431167</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.02666178769313428</v>
-      </c>
-      <c r="T5">
-        <v>0.001589975673797462</v>
-      </c>
-      <c r="U5">
-        <v>0.1381384482191156</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0.0398854728487659</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0.02174843286328864</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0.05746606888438464</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0.01345464191568728</v>
-      </c>
-      <c r="AG5">
-        <v>0.0007990639543934017</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1114,102 +1096,99 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.07042739895204872</v>
+        <v>0.1377407053596326</v>
       </c>
       <c r="E6">
-        <v>0.03205829710783797</v>
+        <v>0.023156824682081</v>
       </c>
       <c r="F6">
-        <v>0.1471977695736653</v>
+        <v>0.351047680548139</v>
       </c>
       <c r="G6">
-        <v>0.2012459657955551</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0006922894745774078</v>
+        <v>0.003664460933334285</v>
       </c>
       <c r="I6">
-        <v>0.05029402830891892</v>
+        <v>0.02089330767934182</v>
       </c>
       <c r="J6">
-        <v>0.02345071888012836</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.02483575144988101</v>
       </c>
       <c r="L6">
-        <v>0.030956413239855</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.06743843829829523</v>
       </c>
       <c r="O6">
-        <v>0.1065033537041897</v>
+        <v>0.01696504918153267</v>
       </c>
       <c r="P6">
-        <v>0.008180979710140991</v>
+        <v>0.000976743323622919</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.009511283109004525</v>
       </c>
       <c r="R6">
-        <v>0.009739669333319502</v>
+        <v>0.02694418537264194</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.06806928027990537</v>
       </c>
       <c r="T6">
-        <v>0.1097941207006038</v>
+        <v>0.1021409127087768</v>
       </c>
       <c r="U6">
-        <v>0.03439929375418554</v>
+        <v>0.006370907535947037</v>
       </c>
       <c r="V6">
-        <v>0.02615838620306033</v>
+        <v>0.02397286020148779</v>
       </c>
       <c r="W6">
-        <v>0.009701269068494625</v>
+        <v>0.003215445334288115</v>
       </c>
       <c r="X6">
-        <v>0.01275884970287586</v>
+        <v>0.03380448248548959</v>
       </c>
       <c r="Y6">
-        <v>0.02644788124685264</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.002478810401355191</v>
       </c>
       <c r="AA6">
-        <v>0.002852814253826621</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.04777445491400359</v>
       </c>
       <c r="AC6">
-        <v>0.0795897124362136</v>
+        <v>0.01731904746481688</v>
       </c>
       <c r="AD6">
-        <v>0.003363386631496033</v>
+        <v>0.0006451040223672299</v>
       </c>
       <c r="AE6">
-        <v>0.007617725567125018</v>
+        <v>0.009688903779848931</v>
       </c>
       <c r="AF6">
-        <v>0.006569676355028987</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.001345360934206387</v>
       </c>
       <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
         <v>0</v>
       </c>
     </row>
@@ -1220,15 +1199,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1332,558 +1311,540 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.06295237744712191</v>
+      </c>
+      <c r="E2">
+        <v>0.1183677100444845</v>
+      </c>
+      <c r="F2">
+        <v>0.2822971740277463</v>
+      </c>
+      <c r="G2">
+        <v>0.4262492428778211</v>
+      </c>
+      <c r="H2">
+        <v>0.4282223598449307</v>
+      </c>
+      <c r="I2">
+        <v>0.4282223598449307</v>
+      </c>
+      <c r="J2">
+        <v>0.4434865181785407</v>
+      </c>
+      <c r="K2">
+        <v>0.4454500476542517</v>
+      </c>
+      <c r="L2">
+        <v>0.4532579602430247</v>
+      </c>
+      <c r="M2">
+        <v>0.4568028778901649</v>
+      </c>
+      <c r="N2">
+        <v>0.4568028778901649</v>
+      </c>
+      <c r="O2">
+        <v>0.5894559857397395</v>
+      </c>
+      <c r="P2">
+        <v>0.5894559857397395</v>
+      </c>
+      <c r="Q2">
+        <v>0.5894559857397395</v>
+      </c>
+      <c r="R2">
+        <v>0.6593017639681067</v>
+      </c>
+      <c r="S2">
+        <v>0.6593017639681067</v>
+      </c>
+      <c r="T2">
+        <v>0.84393551247958</v>
+      </c>
+      <c r="U2">
+        <v>0.8606301883603978</v>
+      </c>
+      <c r="V2">
+        <v>0.8969213811972447</v>
+      </c>
+      <c r="W2">
+        <v>0.8969213811972447</v>
+      </c>
+      <c r="X2">
+        <v>0.9213939772721436</v>
+      </c>
+      <c r="Y2">
+        <v>0.9292683123407725</v>
+      </c>
+      <c r="Z2">
+        <v>0.9292683123407725</v>
+      </c>
+      <c r="AA2">
+        <v>0.9292683123407725</v>
+      </c>
+      <c r="AB2">
+        <v>0.9292683123407725</v>
+      </c>
+      <c r="AC2">
+        <v>0.9903050031141823</v>
+      </c>
+      <c r="AD2">
+        <v>0.9925369436079917</v>
+      </c>
+      <c r="AE2">
+        <v>0.9932342036352456</v>
+      </c>
+      <c r="AF2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AG2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH2">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.2245404626637236</v>
-      </c>
-      <c r="E2">
-        <v>0.2245404626637236</v>
-      </c>
-      <c r="F2">
-        <v>0.4711562185804984</v>
-      </c>
-      <c r="G2">
-        <v>0.4944001760386394</v>
-      </c>
-      <c r="H2">
-        <v>0.5054250194994798</v>
-      </c>
-      <c r="I2">
-        <v>0.5054250194994798</v>
-      </c>
-      <c r="J2">
-        <v>0.5124856092689115</v>
-      </c>
-      <c r="K2">
-        <v>0.5551310163052752</v>
-      </c>
-      <c r="L2">
-        <v>0.5551310163052752</v>
-      </c>
-      <c r="M2">
-        <v>0.5900058272478192</v>
-      </c>
-      <c r="N2">
-        <v>0.6066229095535159</v>
-      </c>
-      <c r="O2">
-        <v>0.7051730124753284</v>
-      </c>
-      <c r="P2">
-        <v>0.7087548837729978</v>
-      </c>
-      <c r="Q2">
-        <v>0.7087548837729978</v>
-      </c>
-      <c r="R2">
-        <v>0.7555720457379491</v>
-      </c>
-      <c r="S2">
-        <v>0.7889637775774073</v>
-      </c>
-      <c r="T2">
-        <v>0.9125856709178379</v>
-      </c>
-      <c r="U2">
-        <v>0.9125856709178379</v>
-      </c>
-      <c r="V2">
-        <v>0.9408029648408468</v>
-      </c>
-      <c r="W2">
-        <v>0.9408029648408468</v>
-      </c>
-      <c r="X2">
-        <v>0.9527860619591204</v>
-      </c>
-      <c r="Y2">
-        <v>0.9527860619591204</v>
-      </c>
-      <c r="Z2">
-        <v>0.9527860619591204</v>
-      </c>
-      <c r="AA2">
-        <v>0.9527860619591204</v>
-      </c>
-      <c r="AB2">
-        <v>0.9539184839468885</v>
-      </c>
-      <c r="AC2">
-        <v>0.98787450872785</v>
-      </c>
-      <c r="AD2">
-        <v>0.98787450872785</v>
-      </c>
-      <c r="AE2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1155352812826572</v>
+      </c>
+      <c r="E3">
+        <v>0.1350289703619617</v>
+      </c>
+      <c r="F3">
+        <v>0.4260326602534352</v>
+      </c>
+      <c r="G3">
+        <v>0.4260326602534352</v>
+      </c>
+      <c r="H3">
+        <v>0.4260326602534352</v>
+      </c>
+      <c r="I3">
+        <v>0.4726239728584494</v>
+      </c>
+      <c r="J3">
+        <v>0.4726239728584494</v>
+      </c>
+      <c r="K3">
+        <v>0.5107603083756733</v>
+      </c>
+      <c r="L3">
+        <v>0.5107603083756733</v>
+      </c>
+      <c r="M3">
+        <v>0.5107603083756733</v>
+      </c>
+      <c r="N3">
+        <v>0.6230621454407128</v>
+      </c>
+      <c r="O3">
+        <v>0.6483708132771754</v>
+      </c>
+      <c r="P3">
+        <v>0.6571051341648095</v>
+      </c>
+      <c r="Q3">
+        <v>0.68129967848026</v>
+      </c>
+      <c r="R3">
+        <v>0.7280359009440319</v>
+      </c>
+      <c r="S3">
+        <v>0.8081170938546253</v>
+      </c>
+      <c r="T3">
+        <v>0.8943707704839198</v>
+      </c>
+      <c r="U3">
+        <v>0.9082733702591388</v>
+      </c>
+      <c r="V3">
+        <v>0.9173804341090619</v>
+      </c>
+      <c r="W3">
+        <v>0.9199404887332863</v>
+      </c>
+      <c r="X3">
+        <v>0.9307923909581788</v>
+      </c>
+      <c r="Y3">
+        <v>0.9307923909581788</v>
+      </c>
+      <c r="Z3">
+        <v>0.9307923909581788</v>
+      </c>
+      <c r="AA3">
+        <v>0.9307923909581788</v>
+      </c>
+      <c r="AB3">
+        <v>0.9551698868416781</v>
+      </c>
+      <c r="AC3">
+        <v>0.987146517831854</v>
+      </c>
+      <c r="AD3">
+        <v>0.987146517831854</v>
+      </c>
+      <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AF2">
+      <c r="AF3">
         <v>1</v>
       </c>
-      <c r="AG2">
+      <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AH2">
+      <c r="AH3">
         <v>1</v>
       </c>
-      <c r="AI2">
+      <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.1092139080824761</v>
-      </c>
-      <c r="E3">
-        <v>0.1222900062340158</v>
-      </c>
-      <c r="F3">
-        <v>0.3607022088024833</v>
-      </c>
-      <c r="G3">
-        <v>0.4488142908155098</v>
-      </c>
-      <c r="H3">
-        <v>0.4740390756174408</v>
-      </c>
-      <c r="I3">
-        <v>0.4740390756174408</v>
-      </c>
-      <c r="J3">
-        <v>0.5140082820322101</v>
-      </c>
-      <c r="K3">
-        <v>0.5258525394452318</v>
-      </c>
-      <c r="L3">
-        <v>0.5366900491946286</v>
-      </c>
-      <c r="M3">
-        <v>0.5510010407778855</v>
-      </c>
-      <c r="N3">
-        <v>0.5510010407778855</v>
-      </c>
-      <c r="O3">
-        <v>0.695700825094997</v>
-      </c>
-      <c r="P3">
-        <v>0.695700825094997</v>
-      </c>
-      <c r="Q3">
-        <v>0.695700825094997</v>
-      </c>
-      <c r="R3">
-        <v>0.7140905706600998</v>
-      </c>
-      <c r="S3">
-        <v>0.7140905706600998</v>
-      </c>
-      <c r="T3">
-        <v>0.869800473602953</v>
-      </c>
-      <c r="U3">
-        <v>0.869800473602953</v>
-      </c>
-      <c r="V3">
-        <v>0.9013333446910679</v>
-      </c>
-      <c r="W3">
-        <v>0.9013333446910679</v>
-      </c>
-      <c r="X3">
-        <v>0.9324601925719107</v>
-      </c>
-      <c r="Y3">
-        <v>0.9324601925719107</v>
-      </c>
-      <c r="Z3">
-        <v>0.9324601925719107</v>
-      </c>
-      <c r="AA3">
-        <v>0.9324601925719107</v>
-      </c>
-      <c r="AB3">
-        <v>0.9324601925719107</v>
-      </c>
-      <c r="AC3">
-        <v>0.9815797201336149</v>
-      </c>
-      <c r="AD3">
-        <v>0.9815797201336149</v>
-      </c>
-      <c r="AE3">
-        <v>0.9932306096984034</v>
-      </c>
-      <c r="AF3">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.01139518642935993</v>
+      </c>
+      <c r="E4">
+        <v>0.1065099871632421</v>
+      </c>
+      <c r="F4">
+        <v>0.1882960607923136</v>
+      </c>
+      <c r="G4">
+        <v>0.4264479206167598</v>
+      </c>
+      <c r="H4">
+        <v>0.4264479206167598</v>
+      </c>
+      <c r="I4">
+        <v>0.4264479206167598</v>
+      </c>
+      <c r="J4">
+        <v>0.4604786110238931</v>
+      </c>
+      <c r="K4">
+        <v>0.4604786110238931</v>
+      </c>
+      <c r="L4">
+        <v>0.496176969018623</v>
+      </c>
+      <c r="M4">
+        <v>0.496176969018623</v>
+      </c>
+      <c r="N4">
+        <v>0.496176969018623</v>
+      </c>
+      <c r="O4">
+        <v>0.6238421446839515</v>
+      </c>
+      <c r="P4">
+        <v>0.6390203768040235</v>
+      </c>
+      <c r="Q4">
+        <v>0.6390203768040235</v>
+      </c>
+      <c r="R4">
+        <v>0.6804838288692631</v>
+      </c>
+      <c r="S4">
+        <v>0.7107939117180909</v>
+      </c>
+      <c r="T4">
+        <v>0.803637582613009</v>
+      </c>
+      <c r="U4">
+        <v>0.8595887401929184</v>
+      </c>
+      <c r="V4">
+        <v>0.8861698027199223</v>
+      </c>
+      <c r="W4">
+        <v>0.9000004897372026</v>
+      </c>
+      <c r="X4">
+        <v>0.9065203770452436</v>
+      </c>
+      <c r="Y4">
+        <v>0.9258170555335064</v>
+      </c>
+      <c r="Z4">
+        <v>0.9258170555335064</v>
+      </c>
+      <c r="AA4">
+        <v>0.9258170555335064</v>
+      </c>
+      <c r="AB4">
+        <v>0.9258170555335064</v>
+      </c>
+      <c r="AC4">
+        <v>0.9835000529947642</v>
+      </c>
+      <c r="AD4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AF4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AG4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AH4">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="AI4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.04398220801573765</v>
+      </c>
+      <c r="E5">
+        <v>0.09874451539824922</v>
+      </c>
+      <c r="F5">
+        <v>0.2329536979384882</v>
+      </c>
+      <c r="G5">
+        <v>0.4025145772673573</v>
+      </c>
+      <c r="H5">
+        <v>0.4025145772673573</v>
+      </c>
+      <c r="I5">
+        <v>0.4025145772673573</v>
+      </c>
+      <c r="J5">
+        <v>0.4315494391297652</v>
+      </c>
+      <c r="K5">
+        <v>0.4349141665079667</v>
+      </c>
+      <c r="L5">
+        <v>0.4593112686276518</v>
+      </c>
+      <c r="M5">
+        <v>0.4609825909598818</v>
+      </c>
+      <c r="N5">
+        <v>0.4609825909598818</v>
+      </c>
+      <c r="O5">
+        <v>0.6243962650970024</v>
+      </c>
+      <c r="P5">
+        <v>0.6243962650970024</v>
+      </c>
+      <c r="Q5">
+        <v>0.6243962650970024</v>
+      </c>
+      <c r="R5">
+        <v>0.6987648680776114</v>
+      </c>
+      <c r="S5">
+        <v>0.7000208351163631</v>
+      </c>
+      <c r="T5">
+        <v>0.8425466617134993</v>
+      </c>
+      <c r="U5">
+        <v>0.8649103315102038</v>
+      </c>
+      <c r="V5">
+        <v>0.9019410594523128</v>
+      </c>
+      <c r="W5">
+        <v>0.9019410594523128</v>
+      </c>
+      <c r="X5">
+        <v>0.9191949457303783</v>
+      </c>
+      <c r="Y5">
+        <v>0.928771150028659</v>
+      </c>
+      <c r="Z5">
+        <v>0.928771150028659</v>
+      </c>
+      <c r="AA5">
+        <v>0.928771150028659</v>
+      </c>
+      <c r="AB5">
+        <v>0.928771150028659</v>
+      </c>
+      <c r="AC5">
+        <v>0.9918413332527297</v>
+      </c>
+      <c r="AD5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AG3">
+      <c r="AE5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AH3">
+      <c r="AF5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AI3">
+      <c r="AG5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ3">
+      <c r="AH5">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.125873389343547</v>
-      </c>
-      <c r="E4">
-        <v>0.1874346896265</v>
-      </c>
-      <c r="F4">
-        <v>0.3911671852300076</v>
-      </c>
-      <c r="G4">
-        <v>0.3911671852300076</v>
-      </c>
-      <c r="H4">
-        <v>0.4378381453230982</v>
-      </c>
-      <c r="I4">
-        <v>0.4389338885917484</v>
-      </c>
-      <c r="J4">
-        <v>0.4389338885917484</v>
-      </c>
-      <c r="K4">
-        <v>0.5125722080091693</v>
-      </c>
-      <c r="L4">
-        <v>0.5125722080091693</v>
-      </c>
-      <c r="M4">
-        <v>0.5296108743283107</v>
-      </c>
-      <c r="N4">
-        <v>0.5946941014581668</v>
-      </c>
-      <c r="O4">
-        <v>0.6849517757905974</v>
-      </c>
-      <c r="P4">
-        <v>0.6849517757905974</v>
-      </c>
-      <c r="Q4">
-        <v>0.6849517757905974</v>
-      </c>
-      <c r="R4">
-        <v>0.7025090316184343</v>
-      </c>
-      <c r="S4">
-        <v>0.7659721394312561</v>
-      </c>
-      <c r="T4">
-        <v>0.8691097300274685</v>
-      </c>
-      <c r="U4">
-        <v>0.877876060593765</v>
-      </c>
-      <c r="V4">
-        <v>0.8987456961526</v>
-      </c>
-      <c r="W4">
-        <v>0.9041795296791326</v>
-      </c>
-      <c r="X4">
-        <v>0.9249011347394871</v>
-      </c>
-      <c r="Y4">
-        <v>0.9249011347394871</v>
-      </c>
-      <c r="Z4">
-        <v>0.9249011347394871</v>
-      </c>
-      <c r="AA4">
-        <v>0.9249011347394871</v>
-      </c>
-      <c r="AB4">
-        <v>0.9630485712731621</v>
-      </c>
-      <c r="AC4">
-        <v>0.9934313966189781</v>
-      </c>
-      <c r="AD4">
-        <v>0.9934313966189781</v>
-      </c>
-      <c r="AE4">
+      <c r="AI5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AF4">
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.1377407053596326</v>
+      </c>
+      <c r="E6">
+        <v>0.1608975300417136</v>
+      </c>
+      <c r="F6">
+        <v>0.5119452105898527</v>
+      </c>
+      <c r="G6">
+        <v>0.5119452105898527</v>
+      </c>
+      <c r="H6">
+        <v>0.5156096715231869</v>
+      </c>
+      <c r="I6">
+        <v>0.5365029792025288</v>
+      </c>
+      <c r="J6">
+        <v>0.5365029792025288</v>
+      </c>
+      <c r="K6">
+        <v>0.5613387306524098</v>
+      </c>
+      <c r="L6">
+        <v>0.5613387306524098</v>
+      </c>
+      <c r="M6">
+        <v>0.5613387306524098</v>
+      </c>
+      <c r="N6">
+        <v>0.628777168950705</v>
+      </c>
+      <c r="O6">
+        <v>0.6457422181322376</v>
+      </c>
+      <c r="P6">
+        <v>0.6467189614558606</v>
+      </c>
+      <c r="Q6">
+        <v>0.6562302445648651</v>
+      </c>
+      <c r="R6">
+        <v>0.6831744299375071</v>
+      </c>
+      <c r="S6">
+        <v>0.7512437102174124</v>
+      </c>
+      <c r="T6">
+        <v>0.8533846229261892</v>
+      </c>
+      <c r="U6">
+        <v>0.8597555304621363</v>
+      </c>
+      <c r="V6">
+        <v>0.8837283906636241</v>
+      </c>
+      <c r="W6">
+        <v>0.8869438359979122</v>
+      </c>
+      <c r="X6">
+        <v>0.9207483184834018</v>
+      </c>
+      <c r="Y6">
+        <v>0.9207483184834018</v>
+      </c>
+      <c r="Z6">
+        <v>0.923227128884757</v>
+      </c>
+      <c r="AA6">
+        <v>0.923227128884757</v>
+      </c>
+      <c r="AB6">
+        <v>0.9710015837987606</v>
+      </c>
+      <c r="AC6">
+        <v>0.9883206312635774</v>
+      </c>
+      <c r="AD6">
+        <v>0.9889657352859447</v>
+      </c>
+      <c r="AE6">
+        <v>0.9986546390657935</v>
+      </c>
+      <c r="AF6">
+        <v>0.9986546390657935</v>
+      </c>
+      <c r="AG6">
+        <v>0.9986546390657935</v>
+      </c>
+      <c r="AH6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AG4">
+      <c r="AI6">
         <v>0.9999999999999999</v>
-      </c>
-      <c r="AH4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AI4">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="AJ4">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1405605563332582</v>
-      </c>
-      <c r="F5">
-        <v>0.1405605563332582</v>
-      </c>
-      <c r="G5">
-        <v>0.4851591702286396</v>
-      </c>
-      <c r="H5">
-        <v>0.5239350407482666</v>
-      </c>
-      <c r="I5">
-        <v>0.5443380147574189</v>
-      </c>
-      <c r="J5">
-        <v>0.5443380147574189</v>
-      </c>
-      <c r="K5">
-        <v>0.5597378932498273</v>
-      </c>
-      <c r="L5">
-        <v>0.5644244713968756</v>
-      </c>
-      <c r="M5">
-        <v>0.569376931156515</v>
-      </c>
-      <c r="N5">
-        <v>0.5853177622043161</v>
-      </c>
-      <c r="O5">
-        <v>0.5853177622043161</v>
-      </c>
-      <c r="P5">
-        <v>0.7002561079474329</v>
-      </c>
-      <c r="Q5">
-        <v>0.7002561079474329</v>
-      </c>
-      <c r="R5">
-        <v>0.7002561079474329</v>
-      </c>
-      <c r="S5">
-        <v>0.7269178956405672</v>
-      </c>
-      <c r="T5">
-        <v>0.7285078713143647</v>
-      </c>
-      <c r="U5">
-        <v>0.8666463195334803</v>
-      </c>
-      <c r="V5">
-        <v>0.8666463195334803</v>
-      </c>
-      <c r="W5">
-        <v>0.9065317923822461</v>
-      </c>
-      <c r="X5">
-        <v>0.9065317923822461</v>
-      </c>
-      <c r="Y5">
-        <v>0.9282802252455348</v>
-      </c>
-      <c r="Z5">
-        <v>0.9282802252455348</v>
-      </c>
-      <c r="AA5">
-        <v>0.9282802252455348</v>
-      </c>
-      <c r="AB5">
-        <v>0.9282802252455348</v>
-      </c>
-      <c r="AC5">
-        <v>0.9282802252455348</v>
-      </c>
-      <c r="AD5">
-        <v>0.9857462941299194</v>
-      </c>
-      <c r="AE5">
-        <v>0.9857462941299194</v>
-      </c>
-      <c r="AF5">
-        <v>0.9992009360456067</v>
-      </c>
-      <c r="AG5">
-        <v>1</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
-      </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.07042739895204872</v>
-      </c>
-      <c r="E6">
-        <v>0.1024856960598867</v>
-      </c>
-      <c r="F6">
-        <v>0.249683465633552</v>
-      </c>
-      <c r="G6">
-        <v>0.4509294314291071</v>
-      </c>
-      <c r="H6">
-        <v>0.4516217209036845</v>
-      </c>
-      <c r="I6">
-        <v>0.5019157492126034</v>
-      </c>
-      <c r="J6">
-        <v>0.5253664680927318</v>
-      </c>
-      <c r="K6">
-        <v>0.5253664680927318</v>
-      </c>
-      <c r="L6">
-        <v>0.5563228813325868</v>
-      </c>
-      <c r="M6">
-        <v>0.5563228813325868</v>
-      </c>
-      <c r="N6">
-        <v>0.5563228813325868</v>
-      </c>
-      <c r="O6">
-        <v>0.6628262350367765</v>
-      </c>
-      <c r="P6">
-        <v>0.6710072147469175</v>
-      </c>
-      <c r="Q6">
-        <v>0.6710072147469175</v>
-      </c>
-      <c r="R6">
-        <v>0.680746884080237</v>
-      </c>
-      <c r="S6">
-        <v>0.680746884080237</v>
-      </c>
-      <c r="T6">
-        <v>0.7905410047808408</v>
-      </c>
-      <c r="U6">
-        <v>0.8249402985350263</v>
-      </c>
-      <c r="V6">
-        <v>0.8510986847380866</v>
-      </c>
-      <c r="W6">
-        <v>0.8607999538065813</v>
-      </c>
-      <c r="X6">
-        <v>0.8735588035094571</v>
-      </c>
-      <c r="Y6">
-        <v>0.9000066847563097</v>
-      </c>
-      <c r="Z6">
-        <v>0.9000066847563097</v>
-      </c>
-      <c r="AA6">
-        <v>0.9028594990101364</v>
-      </c>
-      <c r="AB6">
-        <v>0.9028594990101364</v>
-      </c>
-      <c r="AC6">
-        <v>0.98244921144635</v>
-      </c>
-      <c r="AD6">
-        <v>0.985812598077846</v>
-      </c>
-      <c r="AE6">
-        <v>0.9934303236449711</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1901,48 +1862,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -1951,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5054250194994798</v>
+        <v>0.5894559857397395</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -1969,21 +1930,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -1992,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.5107603083756733</v>
+      </c>
+      <c r="G3">
         <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.5140082820322101</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -2010,39 +1971,39 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5125722080091693</v>
+        <v>0.6238421446839515</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -2051,21 +2012,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -2074,16 +2035,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5239350407482666</v>
+        <v>0.6243962650970024</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -2092,21 +2053,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -2115,16 +2076,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5019157492126034</v>
+        <v>0.5119452105898527</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -2133,16 +2094,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2160,48 +2121,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -2210,16 +2171,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7051730124753284</v>
+        <v>0.84393551247958</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -2228,21 +2189,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2257,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7140905706600998</v>
+        <v>0.7280359009440319</v>
       </c>
       <c r="G3">
         <v>16</v>
@@ -2269,36 +2230,36 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7025090316184343</v>
+        <v>0.7107939117180909</v>
       </c>
       <c r="G4">
         <v>16</v>
@@ -2310,21 +2271,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -2333,16 +2294,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7002561079474329</v>
+        <v>0.7000208351163631</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -2351,21 +2312,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -2374,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7905410047808408</v>
+        <v>0.7512437102174124</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -2392,16 +2353,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2419,48 +2380,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -2475,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9125856709178379</v>
+        <v>0.84393551247958</v>
       </c>
       <c r="G2">
         <v>18</v>
@@ -2487,21 +2448,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -2510,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.869800473602953</v>
+        <v>0.8081170938546253</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -2528,27 +2489,27 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -2557,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8691097300274685</v>
+        <v>0.803637582613009</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -2569,21 +2530,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -2592,16 +2553,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8666463195334803</v>
+        <v>0.8425466617134993</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -2610,21 +2571,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -2633,16 +2594,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8249402985350263</v>
+        <v>0.8533846229261892</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -2651,16 +2612,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2678,48 +2639,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -2728,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9125856709178379</v>
+        <v>0.9213939772721436</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>38</v>
@@ -2746,21 +2707,21 @@
         <v>600</v>
       </c>
       <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>55</v>
-      </c>
-      <c r="M2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2769,16 +2730,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9013333446910679</v>
+        <v>0.9082733702591388</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>38</v>
@@ -2787,27 +2748,27 @@
         <v>600</v>
       </c>
       <c r="J3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
-      </c>
-      <c r="M3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>22</v>
@@ -2816,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9041795296791326</v>
+        <v>0.9000004897372026</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -2828,21 +2789,21 @@
         <v>600</v>
       </c>
       <c r="J4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2851,16 +2812,16 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9065317923822461</v>
+        <v>0.9019410594523128</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>38</v>
@@ -2869,21 +2830,21 @@
         <v>600</v>
       </c>
       <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
-      </c>
-      <c r="M5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -2892,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9000066847563097</v>
+        <v>0.9207483184834018</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -2910,16 +2871,16 @@
         <v>600</v>
       </c>
       <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
         <v>53</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>54</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>55</v>
-      </c>
-      <c r="M6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
